--- a/raw_data/20200818_saline/20200818_Sensor3_Test_95.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_95.xlsx
@@ -1,2337 +1,2753 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1602849-9878-45E2-B88D-BAAC00D80129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>85160.550522</v>
+        <v>85160.550522000005</v>
       </c>
       <c r="B2" s="1">
-        <v>23.655708</v>
+        <v>23.655708000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1150.350000</v>
+        <v>1150.3499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-256.918000</v>
+        <v>-256.91800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>85170.648077</v>
+        <v>85170.648077000005</v>
       </c>
       <c r="G2" s="1">
-        <v>23.658513</v>
+        <v>23.658512999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1172.490000</v>
+        <v>1172.49</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.083000</v>
+        <v>-216.083</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>85181.086879</v>
+        <v>85181.086878999995</v>
       </c>
       <c r="L2" s="1">
         <v>23.661413</v>
       </c>
       <c r="M2" s="1">
-        <v>1201.030000</v>
+        <v>1201.03</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.686000</v>
+        <v>-151.68600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>85191.296530</v>
+        <v>85191.296530000007</v>
       </c>
       <c r="Q2" s="1">
-        <v>23.664249</v>
+        <v>23.664249000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1209.250000</v>
+        <v>1209.25</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.505000</v>
+        <v>-129.505</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>85201.847427</v>
+        <v>85201.847427000001</v>
       </c>
       <c r="V2" s="1">
-        <v>23.667180</v>
+        <v>23.667179999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1217.220000</v>
+        <v>1217.22</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.634000</v>
+        <v>-108.634</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>85212.624997</v>
+        <v>85212.624997000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.670174</v>
+        <v>23.670173999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.950000</v>
+        <v>1224.95</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.345100</v>
+        <v>-91.345100000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>85223.158536</v>
+        <v>85223.158536000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>23.673100</v>
+        <v>23.673100000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.730000</v>
+        <v>1229.73</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.622500</v>
+        <v>-86.622500000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>85233.921226</v>
+        <v>85233.921226000006</v>
       </c>
       <c r="AK2" s="1">
-        <v>23.676089</v>
+        <v>23.676089000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1237.020000</v>
+        <v>1237.02</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.713200</v>
+        <v>-89.713200000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>85244.477579</v>
+        <v>85244.477578999999</v>
       </c>
       <c r="AP2" s="1">
         <v>23.679022</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.355000</v>
+        <v>-101.355</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>85255.506155</v>
+        <v>85255.506154999995</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.682085</v>
+        <v>23.682085000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.444000</v>
+        <v>-120.444</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>85266.657678</v>
+        <v>85266.657678000003</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23.685183</v>
+        <v>23.685182999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1263.270000</v>
+        <v>1263.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.779000</v>
+        <v>-137.779</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>85277.919876</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.688311</v>
+        <v>23.688310999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.292000</v>
+        <v>-219.292</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>85289.216256</v>
       </c>
       <c r="BJ2" s="1">
-        <v>23.691449</v>
+        <v>23.691448999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1372.930000</v>
+        <v>1372.93</v>
       </c>
       <c r="BL2" s="1">
-        <v>-354.993000</v>
+        <v>-354.99299999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>85300.758625</v>
+        <v>85300.758625000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>23.694655</v>
+        <v>23.694655000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.249000</v>
+        <v>-575.24900000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>85311.533257</v>
+        <v>85311.533257000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.697648</v>
+        <v>23.697648000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1619.500000</v>
+        <v>1619.5</v>
       </c>
       <c r="BV2" s="1">
-        <v>-823.344000</v>
+        <v>-823.34400000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>85322.642124</v>
+        <v>85322.642124000005</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.700734</v>
+        <v>23.700734000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.180000</v>
+        <v>1772.18</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1091.750000</v>
+        <v>-1091.75</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>85333.941728</v>
+        <v>85333.941728000005</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.703873</v>
+        <v>23.703873000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2188.630000</v>
+        <v>2188.63</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1740.480000</v>
+        <v>-1740.48</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>85160.942394</v>
+        <v>85160.942393999998</v>
       </c>
       <c r="B3" s="1">
-        <v>23.655817</v>
+        <v>23.655816999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.210000</v>
+        <v>1150.21</v>
       </c>
       <c r="D3" s="1">
-        <v>-256.852000</v>
+        <v>-256.85199999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>85170.992300</v>
+        <v>85170.992299999998</v>
       </c>
       <c r="G3" s="1">
-        <v>23.658609</v>
+        <v>23.658608999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.170000</v>
+        <v>1172.17</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.523000</v>
+        <v>-216.523</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>85181.515422</v>
+        <v>85181.515421999997</v>
       </c>
       <c r="L3" s="1">
-        <v>23.661532</v>
+        <v>23.661532000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1201.250000</v>
+        <v>1201.25</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.261000</v>
+        <v>-151.261</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>85191.727552</v>
+        <v>85191.727551999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.664369</v>
+        <v>23.664369000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.464000</v>
+        <v>-129.464</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>85202.237283</v>
+        <v>85202.237282999995</v>
       </c>
       <c r="V3" s="1">
-        <v>23.667288</v>
+        <v>23.667287999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.592000</v>
+        <v>-108.592</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>85212.970255</v>
+        <v>85212.970254999993</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.670270</v>
+        <v>23.670269999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.980000</v>
+        <v>1224.98</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.311800</v>
+        <v>-91.311800000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>85223.520119</v>
+        <v>85223.520118999993</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.673200</v>
+        <v>23.673200000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.770000</v>
+        <v>1229.77</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.644200</v>
+        <v>-86.644199999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>85234.303144</v>
+        <v>85234.303144000005</v>
       </c>
       <c r="AK3" s="1">
         <v>23.676195</v>
       </c>
       <c r="AL3" s="1">
-        <v>1237.020000</v>
+        <v>1237.02</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.684600</v>
+        <v>-89.684600000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>85244.877850</v>
+        <v>85244.877850000004</v>
       </c>
       <c r="AP3" s="1">
         <v>23.679133</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.369000</v>
+        <v>-101.369</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>85256.265499</v>
+        <v>85256.265499000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.682296</v>
+        <v>23.682296000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.920000</v>
+        <v>1254.92</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.448000</v>
+        <v>-120.44799999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>85267.398204</v>
+        <v>85267.398203999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>23.685388</v>
       </c>
       <c r="BA3" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.782000</v>
+        <v>-137.78200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>85278.312174</v>
+        <v>85278.312174000006</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.688420</v>
+        <v>23.688420000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.316000</v>
+        <v>-219.316</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>85289.591199</v>
+        <v>85289.591199000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.691553</v>
+        <v>23.691552999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1372.940000</v>
+        <v>1372.94</v>
       </c>
       <c r="BL3" s="1">
-        <v>-354.998000</v>
+        <v>-354.99799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>85301.164880</v>
+        <v>85301.164879999997</v>
       </c>
       <c r="BO3" s="1">
         <v>23.694768</v>
       </c>
       <c r="BP3" s="1">
-        <v>1487.620000</v>
+        <v>1487.62</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.272000</v>
+        <v>-575.27200000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>85312.293587</v>
+        <v>85312.293586999993</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.697859</v>
+        <v>23.697859000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1619.600000</v>
+        <v>1619.6</v>
       </c>
       <c r="BV3" s="1">
-        <v>-823.278000</v>
+        <v>-823.27800000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>85323.434227</v>
+        <v>85323.434227000005</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.700954</v>
+        <v>23.700953999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.060000</v>
+        <v>1772.06</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1091.660000</v>
+        <v>-1091.6600000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>85334.227173</v>
+        <v>85334.227173000007</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.703952</v>
+        <v>23.703952000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2187.180000</v>
+        <v>2187.1799999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1740.110000</v>
+        <v>-1740.11</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>85161.377363</v>
+        <v>85161.377363000007</v>
       </c>
       <c r="B4" s="1">
-        <v>23.655938</v>
+        <v>23.655937999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1150.300000</v>
+        <v>1150.3</v>
       </c>
       <c r="D4" s="1">
-        <v>-256.629000</v>
+        <v>-256.62900000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>85171.419851</v>
+        <v>85171.419850999999</v>
       </c>
       <c r="G4" s="1">
         <v>23.658728</v>
       </c>
       <c r="H4" s="1">
-        <v>1172.120000</v>
+        <v>1172.1199999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.247000</v>
+        <v>-216.24700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>85181.851709</v>
+        <v>85181.851708999995</v>
       </c>
       <c r="L4" s="1">
-        <v>23.661625</v>
+        <v>23.661625000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.870000</v>
+        <v>1200.8699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.473000</v>
+        <v>-151.47300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>85192.022672</v>
+        <v>85192.022672000006</v>
       </c>
       <c r="Q4" s="1">
         <v>23.664451</v>
       </c>
       <c r="R4" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.435000</v>
+        <v>-129.435</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>85202.581010</v>
+        <v>85202.581009999994</v>
       </c>
       <c r="V4" s="1">
-        <v>23.667384</v>
+        <v>23.667383999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.950000</v>
+        <v>1216.95</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.803000</v>
+        <v>-108.803</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>85213.317412</v>
+        <v>85213.317412000004</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.670366</v>
+        <v>23.670366000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.399100</v>
+        <v>-91.399100000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>85223.874294</v>
+        <v>85223.874293999994</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.673298</v>
+        <v>23.673297999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.770000</v>
+        <v>1229.77</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.673500</v>
+        <v>-86.673500000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>85235.001544</v>
+        <v>85235.001543999999</v>
       </c>
       <c r="AK4" s="1">
         <v>23.676389</v>
       </c>
       <c r="AL4" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.730500</v>
+        <v>-89.730500000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>85245.596553</v>
+        <v>85245.596552999996</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.679332</v>
+        <v>23.679331999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1245.010000</v>
+        <v>1245.01</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.367000</v>
+        <v>-101.367</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>85256.631547</v>
+        <v>85256.631546999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.682398</v>
+        <v>23.682397999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.433000</v>
+        <v>-120.43300000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>85267.754332</v>
+        <v>85267.754331999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.685487</v>
+        <v>23.685486999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.799000</v>
+        <v>-137.79900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>85278.670782</v>
+        <v>85278.670782000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.688520</v>
+        <v>23.68852</v>
       </c>
       <c r="BF4" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.289000</v>
+        <v>-219.28899999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>85290.286591</v>
+        <v>85290.286590999996</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.691746</v>
+        <v>23.691745999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1372.910000</v>
+        <v>1372.91</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.020000</v>
+        <v>-355.02</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>85301.888511</v>
+        <v>85301.888510999997</v>
       </c>
       <c r="BO4" s="1">
         <v>23.694969</v>
       </c>
       <c r="BP4" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.330000</v>
+        <v>-575.33000000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>85312.402209</v>
+        <v>85312.402209000007</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.697890</v>
+        <v>23.697890000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1619.440000</v>
+        <v>1619.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-823.261000</v>
+        <v>-823.26099999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>85323.645026</v>
+        <v>85323.645025999998</v>
       </c>
       <c r="BY4" s="1">
         <v>23.701013</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.010000</v>
+        <v>1772.01</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1091.790000</v>
+        <v>-1091.79</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>85334.747972</v>
+        <v>85334.747971999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.704097</v>
+        <v>23.704097000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2188.080000</v>
+        <v>2188.08</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1739.560000</v>
+        <v>-1739.56</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>85161.653624</v>
+        <v>85161.653623999999</v>
       </c>
       <c r="B5" s="1">
         <v>23.656015</v>
       </c>
       <c r="C5" s="1">
-        <v>1150.180000</v>
+        <v>1150.18</v>
       </c>
       <c r="D5" s="1">
-        <v>-256.855000</v>
+        <v>-256.85500000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>85171.680747</v>
+        <v>85171.680747000006</v>
       </c>
       <c r="G5" s="1">
-        <v>23.658800</v>
+        <v>23.658799999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.470000</v>
+        <v>1172.47</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.380000</v>
+        <v>-216.38</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>85182.193454</v>
+        <v>85182.193453999993</v>
       </c>
       <c r="L5" s="1">
-        <v>23.661720</v>
+        <v>23.661719999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.258000</v>
+        <v>-151.25800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>85192.372383</v>
+        <v>85192.372382999994</v>
       </c>
       <c r="Q5" s="1">
         <v>23.664548</v>
       </c>
       <c r="R5" s="1">
-        <v>1209.260000</v>
+        <v>1209.26</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.439000</v>
+        <v>-129.43899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>85202.924242</v>
+        <v>85202.924241999994</v>
       </c>
       <c r="V5" s="1">
         <v>23.667479</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.920000</v>
+        <v>1216.92</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.719000</v>
+        <v>-108.71899999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>85214.012307</v>
+        <v>85214.012306999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.670559</v>
+        <v>23.670559000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.424800</v>
+        <v>-91.424800000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>85224.559269</v>
+        <v>85224.559269000005</v>
       </c>
       <c r="AF5" s="1">
         <v>23.673489</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.790000</v>
+        <v>1229.79</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.654100</v>
+        <v>-86.6541</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>85235.348215</v>
+        <v>85235.348215000005</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.676486</v>
+        <v>23.676486000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.713400</v>
+        <v>-89.713399999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>85245.958137</v>
+        <v>85245.958136999994</v>
       </c>
       <c r="AP5" s="1">
         <v>23.679433</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.342000</v>
+        <v>-101.342</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>85256.996141</v>
+        <v>85256.996140999996</v>
       </c>
       <c r="AU5" s="1">
         <v>23.682499</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.427000</v>
+        <v>-120.42700000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>85268.134763</v>
+        <v>85268.134762999995</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.685593</v>
+        <v>23.685593000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1263.300000</v>
+        <v>1263.3</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.796000</v>
+        <v>-137.79599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>85279.349308</v>
+        <v>85279.349308000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>23.688708</v>
+        <v>23.688707999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.304000</v>
+        <v>-219.304</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>85290.743905</v>
+        <v>85290.743904999996</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.691873</v>
+        <v>23.691873000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1372.930000</v>
+        <v>1372.93</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.046000</v>
+        <v>-355.04599999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>85302.003582</v>
+        <v>85302.003582000005</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.695001</v>
+        <v>23.695001000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1487.670000</v>
+        <v>1487.67</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.296000</v>
+        <v>-575.29600000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>85312.834720</v>
+        <v>85312.834719999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.698010</v>
+        <v>23.69801</v>
       </c>
       <c r="BU5" s="1">
-        <v>1619.460000</v>
+        <v>1619.46</v>
       </c>
       <c r="BV5" s="1">
-        <v>-823.192000</v>
+        <v>-823.19200000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>85323.993714</v>
+        <v>85323.993713999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>23.701109</v>
+        <v>23.701108999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.150000</v>
+        <v>1772.15</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1091.930000</v>
+        <v>-1091.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>85335.300548</v>
+        <v>85335.300547999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.704250</v>
+        <v>23.704249999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>2188.880000</v>
+        <v>2188.88</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1740.790000</v>
+        <v>-1740.79</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>85161.996392</v>
+        <v>85161.996392000001</v>
       </c>
       <c r="B6" s="1">
-        <v>23.656110</v>
+        <v>23.656110000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-256.985000</v>
+        <v>-256.98500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>85172.027452</v>
+        <v>85172.027451999995</v>
       </c>
       <c r="G6" s="1">
         <v>23.658897</v>
       </c>
       <c r="H6" s="1">
-        <v>1172.280000</v>
+        <v>1172.28</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.531000</v>
+        <v>-216.53100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>85182.539166</v>
+        <v>85182.539166000002</v>
       </c>
       <c r="L6" s="1">
-        <v>23.661816</v>
+        <v>23.661816000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1200.890000</v>
+        <v>1200.8900000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.336000</v>
+        <v>-151.33600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>85192.750800</v>
+        <v>85192.750799999994</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.664653</v>
+        <v>23.664653000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.491000</v>
+        <v>-129.49100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>85203.612721</v>
+        <v>85203.612720999998</v>
       </c>
       <c r="V6" s="1">
-        <v>23.667670</v>
+        <v>23.667670000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.702000</v>
+        <v>-108.702</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>85214.360003</v>
+        <v>85214.360002999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.670656</v>
+        <v>23.670656000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.960000</v>
+        <v>1224.96</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.249400</v>
+        <v>-91.249399999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>85224.910404</v>
+        <v>85224.910403999995</v>
       </c>
       <c r="AF6" s="1">
         <v>23.673586</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.770000</v>
+        <v>1229.77</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.694100</v>
+        <v>-86.694100000000006</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>85235.701367</v>
+        <v>85235.701367000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.676584</v>
+        <v>23.676583999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.681300</v>
+        <v>-89.681299999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>85246.315753</v>
+        <v>85246.315753000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.679532</v>
+        <v>23.679531999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.347000</v>
+        <v>-101.34699999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>85257.664228</v>
+        <v>85257.664227999994</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.682685</v>
+        <v>23.682684999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.447000</v>
+        <v>-120.447</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>85268.861937</v>
+        <v>85268.861936999994</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.685795</v>
+        <v>23.685794999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.778000</v>
+        <v>-137.77799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>85279.784798</v>
+        <v>85279.784797999993</v>
       </c>
       <c r="BE6" s="1">
-        <v>23.688829</v>
+        <v>23.688828999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.297000</v>
+        <v>-219.297</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>85291.132765</v>
+        <v>85291.132765000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.691981</v>
+        <v>23.691980999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1372.900000</v>
+        <v>1372.9</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.013000</v>
+        <v>-355.01299999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>85302.397934</v>
+        <v>85302.397933999993</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.695111</v>
+        <v>23.695111000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1487.600000</v>
+        <v>1487.6</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.299000</v>
+        <v>-575.29899999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>85313.249905</v>
+        <v>85313.249905000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>23.698125</v>
+        <v>23.698125000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1619.430000</v>
+        <v>1619.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-823.209000</v>
+        <v>-823.20899999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>85324.439655</v>
+        <v>85324.439654999995</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.701233</v>
+        <v>23.701232999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.040000</v>
+        <v>1772.04</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1091.790000</v>
+        <v>-1091.79</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>85335.832723</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.704398</v>
+        <v>23.704398000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2186.910000</v>
+        <v>2186.91</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1739.830000</v>
+        <v>-1739.83</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>85162.335624</v>
+        <v>85162.335623999999</v>
       </c>
       <c r="B7" s="1">
-        <v>23.656204</v>
+        <v>23.656203999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1150.300000</v>
+        <v>1150.3</v>
       </c>
       <c r="D7" s="1">
-        <v>-256.927000</v>
+        <v>-256.92700000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>85172.368202</v>
+        <v>85172.368201999998</v>
       </c>
       <c r="G7" s="1">
         <v>23.658991</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.450000</v>
+        <v>1172.45</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.625000</v>
+        <v>-216.625</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>85183.236556</v>
+        <v>85183.236556000003</v>
       </c>
       <c r="L7" s="1">
-        <v>23.662010</v>
+        <v>23.662009999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.100000</v>
+        <v>1201.0999999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.599000</v>
+        <v>-151.59899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>85193.414942</v>
+        <v>85193.414942000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.664837</v>
+        <v>23.664836999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1209.310000</v>
+        <v>1209.31</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.567000</v>
+        <v>-129.56700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>85203.954432</v>
+        <v>85203.954431999999</v>
       </c>
       <c r="V7" s="1">
-        <v>23.667765</v>
+        <v>23.667764999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1217.010000</v>
+        <v>1217.01</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.444000</v>
+        <v>-108.444</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>85214.710178</v>
+        <v>85214.710177999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.670753</v>
+        <v>23.670753000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.318100</v>
+        <v>-91.318100000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>85225.252180</v>
+        <v>85225.252179999996</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.673681</v>
+        <v>23.673680999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.730000</v>
+        <v>1229.73</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.727100</v>
+        <v>-86.727099999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>85236.359557</v>
+        <v>85236.359557000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>23.676767</v>
+        <v>23.676767000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.699900</v>
+        <v>-89.6999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>85246.996791</v>
+        <v>85246.996790999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.679721</v>
+        <v>23.679721000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1245.010000</v>
+        <v>1245.01</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.365000</v>
+        <v>-101.36499999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>85258.116073</v>
+        <v>85258.116072999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.682810</v>
+        <v>23.68281</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.880000</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.444000</v>
+        <v>-120.444</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>85269.212075</v>
+        <v>85269.212075000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.685892</v>
+        <v>23.685891999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.783000</v>
+        <v>-137.78299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>85280.144893</v>
+        <v>85280.144893000004</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.688929</v>
+        <v>23.688929000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1303.440000</v>
+        <v>1303.44</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.400000</v>
+        <v>-219.4</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>85291.505788</v>
+        <v>85291.505787999995</v>
       </c>
       <c r="BJ7" s="1">
-        <v>23.692085</v>
+        <v>23.692084999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1372.910000</v>
+        <v>1372.91</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.029000</v>
+        <v>-355.029</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>85302.820990</v>
+        <v>85302.820989999993</v>
       </c>
       <c r="BO7" s="1">
         <v>23.695228</v>
       </c>
       <c r="BP7" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.297000</v>
+        <v>-575.29700000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>85313.683375</v>
+        <v>85313.683374999993</v>
       </c>
       <c r="BT7" s="1">
         <v>23.698245</v>
       </c>
       <c r="BU7" s="1">
-        <v>1619.490000</v>
+        <v>1619.49</v>
       </c>
       <c r="BV7" s="1">
-        <v>-823.160000</v>
+        <v>-823.16</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>85324.870678</v>
+        <v>85324.870678000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.701353</v>
+        <v>23.701353000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.160000</v>
+        <v>1772.16</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1091.810000</v>
+        <v>-1091.81</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>85336.346610</v>
+        <v>85336.346609999993</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.704541</v>
+        <v>23.704540999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2188.420000</v>
+        <v>2188.42</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1739.870000</v>
+        <v>-1739.87</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>85163.020598</v>
+        <v>85163.020598000003</v>
       </c>
       <c r="B8" s="1">
         <v>23.656395</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.210000</v>
+        <v>1150.21</v>
       </c>
       <c r="D8" s="1">
-        <v>-256.939000</v>
+        <v>-256.93900000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>85173.066074</v>
+        <v>85173.066074000002</v>
       </c>
       <c r="G8" s="1">
-        <v>23.659185</v>
+        <v>23.659185000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1172.290000</v>
+        <v>1172.29</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.680000</v>
+        <v>-216.68</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>85183.582290</v>
+        <v>85183.582290000006</v>
       </c>
       <c r="L8" s="1">
-        <v>23.662106</v>
+        <v>23.662106000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1200.920000</v>
+        <v>1200.92</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.438000</v>
+        <v>-151.43799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>85193.766606</v>
+        <v>85193.766606000005</v>
       </c>
       <c r="Q8" s="1">
         <v>23.664935</v>
       </c>
       <c r="R8" s="1">
-        <v>1209.250000</v>
+        <v>1209.25</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.458000</v>
+        <v>-129.458</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>85204.297169</v>
+        <v>85204.297168999998</v>
       </c>
       <c r="V8" s="1">
-        <v>23.667860</v>
+        <v>23.667860000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1217.000000</v>
+        <v>1217</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.630000</v>
+        <v>-108.63</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>85215.366882</v>
+        <v>85215.366882000002</v>
       </c>
       <c r="AA8" s="1">
         <v>23.670935</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.980000</v>
+        <v>1224.98</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.423200</v>
+        <v>-91.423199999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>85225.915299</v>
       </c>
       <c r="AF8" s="1">
-        <v>23.673865</v>
+        <v>23.673864999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.750000</v>
+        <v>1229.75</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.641500</v>
+        <v>-86.641499999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>85236.743461</v>
+        <v>85236.743461000005</v>
       </c>
       <c r="AK8" s="1">
-        <v>23.676873</v>
+        <v>23.676873000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.704100</v>
+        <v>-89.704099999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>85247.426295</v>
+        <v>85247.426294999997</v>
       </c>
       <c r="AP8" s="1">
         <v>23.679841</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.358000</v>
+        <v>-101.358</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>85258.481130</v>
+        <v>85258.48113</v>
       </c>
       <c r="AU8" s="1">
-        <v>23.682911</v>
+        <v>23.682911000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.448000</v>
+        <v>-120.44799999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>85269.549397</v>
+        <v>85269.549396999995</v>
       </c>
       <c r="AZ8" s="1">
         <v>23.685986</v>
       </c>
       <c r="BA8" s="1">
-        <v>1263.300000</v>
+        <v>1263.3</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.782000</v>
+        <v>-137.78200000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>85280.739145</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.689094</v>
+        <v>23.689094000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.317000</v>
+        <v>-219.31700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>85291.936284</v>
+        <v>85291.936283999996</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.692205</v>
+        <v>23.692205000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1372.900000</v>
+        <v>1372.9</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.017000</v>
+        <v>-355.017</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>85303.268878</v>
+        <v>85303.268878000003</v>
       </c>
       <c r="BO8" s="1">
         <v>23.695352</v>
       </c>
       <c r="BP8" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.321000</v>
+        <v>-575.32100000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>85314.108943</v>
+        <v>85314.108942999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.698364</v>
+        <v>23.698364000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1619.350000</v>
+        <v>1619.35</v>
       </c>
       <c r="BV8" s="1">
-        <v>-823.166000</v>
+        <v>-823.16600000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>85325.294255</v>
+        <v>85325.294255000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>23.701471</v>
+        <v>23.701471000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1091.830000</v>
+        <v>-1091.83</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>85336.898630</v>
+        <v>85336.898629999996</v>
       </c>
       <c r="CD8" s="1">
         <v>23.704694</v>
       </c>
       <c r="CE8" s="1">
-        <v>2188.640000</v>
+        <v>2188.64</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1741.380000</v>
+        <v>-1741.38</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>85163.362876</v>
+        <v>85163.362875999999</v>
       </c>
       <c r="B9" s="1">
-        <v>23.656490</v>
+        <v>23.656490000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1150.280000</v>
+        <v>1150.28</v>
       </c>
       <c r="D9" s="1">
-        <v>-256.931000</v>
+        <v>-256.93099999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>85173.414761</v>
+        <v>85173.414761000007</v>
       </c>
       <c r="G9" s="1">
-        <v>23.659282</v>
+        <v>23.659282000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1172.250000</v>
+        <v>1172.25</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.642000</v>
+        <v>-216.642</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>85183.928459</v>
+        <v>85183.928459000002</v>
       </c>
       <c r="L9" s="1">
-        <v>23.662202</v>
+        <v>23.662202000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.613000</v>
+        <v>-151.613</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>85194.426781</v>
+        <v>85194.426781000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.665119</v>
+        <v>23.665119000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1209.230000</v>
+        <v>1209.23</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.391000</v>
+        <v>-129.39099999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>85204.965312</v>
@@ -2340,1525 +2756,1525 @@
         <v>23.668046</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.950000</v>
+        <v>1216.95</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.529000</v>
+        <v>-108.529</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>85215.758226</v>
+        <v>85215.758226000005</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.671044</v>
+        <v>23.671043999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.990000</v>
+        <v>1224.99</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.343400</v>
+        <v>-91.343400000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>85226.281876</v>
+        <v>85226.281875999994</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.673967</v>
+        <v>23.673967000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.750000</v>
+        <v>1229.75</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.684000</v>
+        <v>-86.683999999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>85237.092645</v>
+        <v>85237.092644999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>23.676970</v>
+        <v>23.676970000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.681600</v>
+        <v>-89.681600000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>85247.785398</v>
+        <v>85247.785398000007</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.679940</v>
+        <v>23.679939999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.373000</v>
+        <v>-101.373</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>85258.847181</v>
+        <v>85258.847181000005</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.683013</v>
+        <v>23.683012999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.482000</v>
+        <v>-120.482</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>85269.977929</v>
+        <v>85269.977929000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.686105</v>
+        <v>23.686105000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.783000</v>
+        <v>-137.78299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>85281.158218</v>
+        <v>85281.158217999997</v>
       </c>
       <c r="BE9" s="1">
         <v>23.689211</v>
       </c>
       <c r="BF9" s="1">
-        <v>1303.210000</v>
+        <v>1303.21</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.303000</v>
+        <v>-219.303</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>85292.256700</v>
+        <v>85292.256699999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>23.692294</v>
       </c>
       <c r="BK9" s="1">
-        <v>1372.920000</v>
+        <v>1372.92</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.028000</v>
+        <v>-355.02800000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>85303.639885</v>
+        <v>85303.639884999997</v>
       </c>
       <c r="BO9" s="1">
         <v>23.695456</v>
       </c>
       <c r="BP9" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.289000</v>
+        <v>-575.28899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>85314.519134</v>
+        <v>85314.519134000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>23.698478</v>
+        <v>23.698478000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1619.420000</v>
+        <v>1619.42</v>
       </c>
       <c r="BV9" s="1">
-        <v>-823.036000</v>
+        <v>-823.03599999999994</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>85325.715856</v>
+        <v>85325.715855999995</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.701588</v>
+        <v>23.701588000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.200000</v>
+        <v>1772.2</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1091.800000</v>
+        <v>-1091.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>85337.430337</v>
+        <v>85337.430336999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>23.704842</v>
+        <v>23.704841999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2187.840000</v>
+        <v>2187.84</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1740.050000</v>
+        <v>-1740.05</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>85163.704085</v>
+        <v>85163.704085000005</v>
       </c>
       <c r="B10" s="1">
-        <v>23.656584</v>
+        <v>23.656583999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1150.060000</v>
+        <v>1150.06</v>
       </c>
       <c r="D10" s="1">
-        <v>-256.714000</v>
+        <v>-256.714</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>85173.759017</v>
+        <v>85173.759017000004</v>
       </c>
       <c r="G10" s="1">
         <v>23.659378</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.050000</v>
+        <v>1172.05</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.698000</v>
+        <v>-216.69800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>85184.591114</v>
+        <v>85184.591113999995</v>
       </c>
       <c r="L10" s="1">
-        <v>23.662386</v>
+        <v>23.662386000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1201.140000</v>
+        <v>1201.1400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.536000</v>
+        <v>-151.536</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>85194.811676</v>
+        <v>85194.811675999998</v>
       </c>
       <c r="Q10" s="1">
         <v>23.665225</v>
       </c>
       <c r="R10" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.430000</v>
+        <v>-129.43</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>85205.326862</v>
+        <v>85205.326862000002</v>
       </c>
       <c r="V10" s="1">
         <v>23.668146</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.920000</v>
+        <v>1216.92</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.570000</v>
+        <v>-108.57</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>85216.107445</v>
+        <v>85216.107445000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.671141</v>
+        <v>23.671140999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.369000</v>
+        <v>-91.369</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>85226.626099</v>
+        <v>85226.626099000001</v>
       </c>
       <c r="AF10" s="1">
         <v>23.674063</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.760000</v>
+        <v>1229.76</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.656500</v>
+        <v>-86.656499999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>85237.441332</v>
+        <v>85237.441332000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>23.677067</v>
+        <v>23.677067000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1237.010000</v>
+        <v>1237.01</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.722000</v>
+        <v>-89.721999999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>85248.144006</v>
+        <v>85248.144006000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>23.680040</v>
+        <v>23.680040000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.349000</v>
+        <v>-101.349</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>85259.269767</v>
+        <v>85259.269767000005</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.683130</v>
+        <v>23.683129999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.467000</v>
+        <v>-120.467</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>85270.267598</v>
+        <v>85270.267598000006</v>
       </c>
       <c r="AZ10" s="1">
-        <v>23.686185</v>
+        <v>23.686184999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1263.300000</v>
+        <v>1263.3</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.794000</v>
+        <v>-137.79400000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>85281.502442</v>
+        <v>85281.502441999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.689306</v>
+        <v>23.689305999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1303.230000</v>
+        <v>1303.23</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.327000</v>
+        <v>-219.327</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>85292.643118</v>
+        <v>85292.643118000007</v>
       </c>
       <c r="BJ10" s="1">
         <v>23.692401</v>
       </c>
       <c r="BK10" s="1">
-        <v>1372.930000</v>
+        <v>1372.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.031000</v>
+        <v>-355.03100000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>85304.038208</v>
+        <v>85304.038207999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.695566</v>
+        <v>23.695565999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1487.590000</v>
+        <v>1487.59</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.306000</v>
+        <v>-575.30600000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>85314.949166</v>
+        <v>85314.949166000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.698597</v>
+        <v>23.698596999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1619.430000</v>
+        <v>1619.43</v>
       </c>
       <c r="BV10" s="1">
-        <v>-823.029000</v>
+        <v>-823.029</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>85326.169663</v>
+        <v>85326.169662999993</v>
       </c>
       <c r="BY10" s="1">
-        <v>23.701714</v>
+        <v>23.701713999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1772.100000</v>
+        <v>1772.1</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1091.900000</v>
+        <v>-1091.9000000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>85337.946175</v>
+        <v>85337.946175000005</v>
       </c>
       <c r="CD10" s="1">
-        <v>23.704985</v>
+        <v>23.704985000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2186.470000</v>
+        <v>2186.4699999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1741.150000</v>
+        <v>-1741.15</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>85164.352357</v>
+        <v>85164.352356999996</v>
       </c>
       <c r="B11" s="1">
         <v>23.656765</v>
       </c>
       <c r="C11" s="1">
-        <v>1150.520000</v>
+        <v>1150.52</v>
       </c>
       <c r="D11" s="1">
-        <v>-256.929000</v>
+        <v>-256.92899999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>85174.421639</v>
+        <v>85174.421638999993</v>
       </c>
       <c r="G11" s="1">
-        <v>23.659562</v>
+        <v>23.659562000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.390000</v>
+        <v>1172.3900000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.281000</v>
+        <v>-216.28100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>85184.965097</v>
+        <v>85184.965096999993</v>
       </c>
       <c r="L11" s="1">
-        <v>23.662490</v>
+        <v>23.662489999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1201.050000</v>
+        <v>1201.05</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.396000</v>
+        <v>-151.39599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>85195.161368</v>
+        <v>85195.161368000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.665323</v>
+        <v>23.665323000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1209.310000</v>
+        <v>1209.31</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.501000</v>
+        <v>-129.501</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>85205.671582</v>
+        <v>85205.671581999995</v>
       </c>
       <c r="V11" s="1">
-        <v>23.668242</v>
+        <v>23.668241999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.582000</v>
+        <v>-108.58199999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>85216.453153</v>
+        <v>85216.453152999995</v>
       </c>
       <c r="AA11" s="1">
-        <v>23.671237</v>
+        <v>23.671237000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.950000</v>
+        <v>1224.95</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.341300</v>
+        <v>-91.341300000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>85226.969794</v>
+        <v>85226.969794000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>23.674158</v>
+        <v>23.674157999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.770000</v>
+        <v>1229.77</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.664400</v>
+        <v>-86.664400000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>85237.866405</v>
+        <v>85237.866404999993</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.677185</v>
+        <v>23.677185000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.990000</v>
+        <v>1236.99</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.733300</v>
+        <v>-89.7333</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>85248.561141</v>
+        <v>85248.561140999998</v>
       </c>
       <c r="AP11" s="1">
         <v>23.680156</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.360000</v>
+        <v>-101.36</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>85259.575836</v>
+        <v>85259.575836000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>23.683216</v>
+        <v>23.683216000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.452000</v>
+        <v>-120.452</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>85270.626169</v>
+        <v>85270.626168999996</v>
       </c>
       <c r="AZ11" s="1">
-        <v>23.686285</v>
+        <v>23.686285000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1263.290000</v>
+        <v>1263.29</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.764000</v>
+        <v>-137.76400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>85281.864522</v>
+        <v>85281.864522000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.689407</v>
+        <v>23.689406999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.321000</v>
+        <v>-219.321</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>85293.033434</v>
+        <v>85293.033433999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.692509</v>
+        <v>23.692509000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1372.920000</v>
+        <v>1372.92</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.024000</v>
+        <v>-355.024</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>85304.458283</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.695683</v>
+        <v>23.695682999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.350000</v>
+        <v>-575.35</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>85315.376718</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.698716</v>
+        <v>23.698716000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1619.450000</v>
+        <v>1619.45</v>
       </c>
       <c r="BV11" s="1">
-        <v>-823.000000</v>
+        <v>-823</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>85326.585310</v>
+        <v>85326.585309999995</v>
       </c>
       <c r="BY11" s="1">
         <v>23.701829</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.190000</v>
+        <v>1772.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1091.990000</v>
+        <v>-1091.99</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>85338.465487</v>
+        <v>85338.465486999994</v>
       </c>
       <c r="CD11" s="1">
-        <v>23.705129</v>
+        <v>23.705128999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2188.190000</v>
+        <v>2188.19</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1742.820000</v>
+        <v>-1742.82</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>85164.727332</v>
+        <v>85164.727331999995</v>
       </c>
       <c r="B12" s="1">
         <v>23.656869</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.470000</v>
+        <v>1150.47</v>
       </c>
       <c r="D12" s="1">
-        <v>-256.861000</v>
+        <v>-256.86099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>85174.792647</v>
+        <v>85174.792646999995</v>
       </c>
       <c r="G12" s="1">
         <v>23.659665</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.920000</v>
+        <v>1171.92</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.539000</v>
+        <v>-216.53899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>85185.310811</v>
+        <v>85185.310811000003</v>
       </c>
       <c r="L12" s="1">
-        <v>23.662586</v>
+        <v>23.662586000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1200.980000</v>
+        <v>1200.98</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.452000</v>
+        <v>-151.452</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>85195.507563</v>
+        <v>85195.507563000006</v>
       </c>
       <c r="Q12" s="1">
         <v>23.665419</v>
       </c>
       <c r="R12" s="1">
-        <v>1209.220000</v>
+        <v>1209.22</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.458000</v>
+        <v>-129.458</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>85206.015310</v>
+        <v>85206.015310000003</v>
       </c>
       <c r="V12" s="1">
-        <v>23.668338</v>
+        <v>23.668337999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.591000</v>
+        <v>-108.59099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>85216.875711</v>
+        <v>85216.875711000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>23.671354</v>
+        <v>23.671354000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.720000</v>
+        <v>1224.72</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.242000</v>
+        <v>-91.242000000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>85227.397842</v>
+        <v>85227.397842000006</v>
       </c>
       <c r="AF12" s="1">
         <v>23.674277</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.750000</v>
+        <v>1229.75</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.684900</v>
+        <v>-86.684899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>85238.138740</v>
+        <v>85238.138739999995</v>
       </c>
       <c r="AK12" s="1">
-        <v>23.677261</v>
+        <v>23.677261000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1237.040000</v>
+        <v>1237.04</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.706800</v>
+        <v>-89.706800000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>85248.866181</v>
+        <v>85248.866181000005</v>
       </c>
       <c r="AP12" s="1">
-        <v>23.680241</v>
+        <v>23.680240999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.364000</v>
+        <v>-101.364</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>85259.940855</v>
+        <v>85259.940854999993</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.683317</v>
+        <v>23.683316999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.880000</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.415000</v>
+        <v>-120.41500000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>85270.985304</v>
+        <v>85270.985304000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>23.686385</v>
+        <v>23.686385000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1263.270000</v>
+        <v>1263.27</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.776000</v>
+        <v>-137.77600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>85282.224121</v>
+        <v>85282.224121000007</v>
       </c>
       <c r="BE12" s="1">
-        <v>23.689507</v>
+        <v>23.689506999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.327000</v>
+        <v>-219.327</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>85293.782393</v>
+        <v>85293.782393000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.692717</v>
+        <v>23.692716999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1372.910000</v>
+        <v>1372.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.048000</v>
+        <v>-355.048</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>85305.272715</v>
+        <v>85305.272714999999</v>
       </c>
       <c r="BO12" s="1">
         <v>23.695909</v>
       </c>
       <c r="BP12" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.304000</v>
+        <v>-575.30399999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>85315.787902</v>
+        <v>85315.787901999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.698830</v>
+        <v>23.698830000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1619.450000</v>
+        <v>1619.45</v>
       </c>
       <c r="BV12" s="1">
-        <v>-822.986000</v>
+        <v>-822.98599999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>85327.039150</v>
+        <v>85327.039149999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.701955</v>
+        <v>23.701955000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.220000</v>
+        <v>1772.22</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1091.840000</v>
+        <v>-1091.8399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>85338.983343</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.705273</v>
+        <v>23.705272999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>2186.860000</v>
+        <v>2186.86</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1741.810000</v>
+        <v>-1741.81</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>85165.071060</v>
+        <v>85165.071060000002</v>
       </c>
       <c r="B13" s="1">
-        <v>23.656964</v>
+        <v>23.656963999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.290000</v>
+        <v>1150.29</v>
       </c>
       <c r="D13" s="1">
-        <v>-256.715000</v>
+        <v>-256.71499999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>85175.165655</v>
+        <v>85175.165655000004</v>
       </c>
       <c r="G13" s="1">
         <v>23.659768</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.270000</v>
+        <v>1172.27</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.446000</v>
+        <v>-216.446</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>85185.658010</v>
+        <v>85185.658009999999</v>
       </c>
       <c r="L13" s="1">
-        <v>23.662683</v>
+        <v>23.662683000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1201.100000</v>
+        <v>1201.0999999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.540000</v>
+        <v>-151.54</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>85195.936603</v>
+        <v>85195.936602999995</v>
       </c>
       <c r="Q13" s="1">
-        <v>23.665538</v>
+        <v>23.665538000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.477000</v>
+        <v>-129.477</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>85206.446861</v>
+        <v>85206.446861000004</v>
       </c>
       <c r="V13" s="1">
         <v>23.668457</v>
       </c>
       <c r="W13" s="1">
-        <v>1217.000000</v>
+        <v>1217</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.621000</v>
+        <v>-108.621</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>85217.155983</v>
+        <v>85217.155983000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>23.671432</v>
+        <v>23.671431999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.910000</v>
+        <v>1224.9100000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.379200</v>
+        <v>-91.379199999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>85227.659233</v>
+        <v>85227.659232999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.674350</v>
+        <v>23.67435</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.740000</v>
+        <v>1229.74</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.670600</v>
+        <v>-86.670599999999993</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>85238.487394</v>
+        <v>85238.487393999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>23.677358</v>
+        <v>23.677358000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.737600</v>
+        <v>-89.7376</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>85249.461877</v>
+        <v>85249.461876999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.680406</v>
+        <v>23.680406000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.365000</v>
+        <v>-101.36499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>85260.304917</v>
+        <v>85260.304917000001</v>
       </c>
       <c r="AU13" s="1">
         <v>23.683418</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.880000</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.432000</v>
+        <v>-120.432</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>85271.711414</v>
+        <v>85271.711414000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.686587</v>
+        <v>23.686586999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1263.270000</v>
+        <v>1263.27</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.753000</v>
+        <v>-137.75299999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>85282.948813</v>
+        <v>85282.948812999995</v>
       </c>
       <c r="BE13" s="1">
         <v>23.689708</v>
       </c>
       <c r="BF13" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.302000</v>
+        <v>-219.30199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>85294.183690</v>
+        <v>85294.183690000005</v>
       </c>
       <c r="BJ13" s="1">
         <v>23.692829</v>
       </c>
       <c r="BK13" s="1">
-        <v>1372.920000</v>
+        <v>1372.92</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.003000</v>
+        <v>-355.00299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>85305.695803</v>
+        <v>85305.695802999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>23.696027</v>
+        <v>23.696027000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.294000</v>
+        <v>-575.29399999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>85316.218924</v>
+        <v>85316.218924000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.698950</v>
+        <v>23.69895</v>
       </c>
       <c r="BU13" s="1">
-        <v>1619.520000</v>
+        <v>1619.52</v>
       </c>
       <c r="BV13" s="1">
-        <v>-822.911000</v>
+        <v>-822.91099999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>85327.796077</v>
+        <v>85327.796077000006</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.702166</v>
+        <v>23.702165999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.190000</v>
+        <v>1772.19</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1091.800000</v>
+        <v>-1091.8</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>85339.862717</v>
+        <v>85339.862716999996</v>
       </c>
       <c r="CD13" s="1">
         <v>23.705517</v>
       </c>
       <c r="CE13" s="1">
-        <v>2186.760000</v>
+        <v>2186.7600000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1740.520000</v>
+        <v>-1740.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>85165.414292</v>
+        <v>85165.414292000001</v>
       </c>
       <c r="B14" s="1">
-        <v>23.657060</v>
+        <v>23.657060000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1150.240000</v>
+        <v>1150.24</v>
       </c>
       <c r="D14" s="1">
-        <v>-256.968000</v>
+        <v>-256.96800000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>85175.747446</v>
+        <v>85175.747445999994</v>
       </c>
       <c r="G14" s="1">
-        <v>23.659930</v>
+        <v>23.659929999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1172.320000</v>
+        <v>1172.32</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.450000</v>
+        <v>-216.45</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>85186.068728</v>
+        <v>85186.068727999998</v>
       </c>
       <c r="L14" s="1">
-        <v>23.662797</v>
+        <v>23.662797000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1200.950000</v>
+        <v>1200.95</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.361000</v>
+        <v>-151.36099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>85196.217834</v>
+        <v>85196.217833999995</v>
       </c>
       <c r="Q14" s="1">
         <v>23.665616</v>
       </c>
       <c r="R14" s="1">
-        <v>1209.210000</v>
+        <v>1209.21</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.444000</v>
+        <v>-129.44399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>85206.726090</v>
+        <v>85206.726089999996</v>
       </c>
       <c r="V14" s="1">
-        <v>23.668535</v>
+        <v>23.668534999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.980000</v>
+        <v>1216.98</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.736000</v>
+        <v>-108.736</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>85217.504638</v>
+        <v>85217.504637999999</v>
       </c>
       <c r="AA14" s="1">
         <v>23.671529</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.970000</v>
+        <v>1224.97</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.293700</v>
+        <v>-91.293700000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>85228.003458</v>
+        <v>85228.003458000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.674445</v>
+        <v>23.674444999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.740000</v>
+        <v>1229.74</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.676400</v>
+        <v>-86.676400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>85238.836114</v>
+        <v>85238.836114000005</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.677454</v>
+        <v>23.677454000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.700900</v>
+        <v>-89.700900000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>85249.899041</v>
+        <v>85249.899040999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>23.680528</v>
+        <v>23.680527999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.341000</v>
+        <v>-101.34099999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>85261.035525</v>
+        <v>85261.035524999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.683621</v>
+        <v>23.683620999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.446000</v>
+        <v>-120.446</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>85272.088870</v>
+        <v>85272.088870000007</v>
       </c>
       <c r="AZ14" s="1">
         <v>23.686691</v>
       </c>
       <c r="BA14" s="1">
-        <v>1263.270000</v>
+        <v>1263.27</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.788000</v>
+        <v>-137.78800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>85283.309401</v>
+        <v>85283.309401000006</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.689808</v>
+        <v>23.689807999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.317000</v>
+        <v>-219.31700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>85294.559624</v>
+        <v>85294.559624000001</v>
       </c>
       <c r="BJ14" s="1">
         <v>23.692933</v>
       </c>
       <c r="BK14" s="1">
-        <v>1372.950000</v>
+        <v>1372.95</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.026000</v>
+        <v>-355.02600000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>85306.393178</v>
+        <v>85306.393177999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.696220</v>
+        <v>23.69622</v>
       </c>
       <c r="BP14" s="1">
-        <v>1487.600000</v>
+        <v>1487.6</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.277000</v>
+        <v>-575.27700000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>85316.961436</v>
+        <v>85316.961435999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.699156</v>
+        <v>23.699155999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1619.650000</v>
+        <v>1619.65</v>
       </c>
       <c r="BV14" s="1">
-        <v>-822.817000</v>
+        <v>-822.81700000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>85327.938893</v>
+        <v>85327.938892999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.702205</v>
+        <v>23.702204999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.230000</v>
+        <v>1772.23</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1091.920000</v>
+        <v>-1091.92</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>85340.055660</v>
+        <v>85340.055659999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.705571</v>
+        <v>23.705570999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2187.190000</v>
+        <v>2187.19</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1742.330000</v>
+        <v>-1742.33</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>85165.834404</v>
+        <v>85165.834403999994</v>
       </c>
       <c r="B15" s="1">
         <v>23.657176</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.390000</v>
+        <v>1150.3900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-256.860000</v>
+        <v>-256.86</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>85176.179957</v>
       </c>
       <c r="G15" s="1">
-        <v>23.660050</v>
+        <v>23.660049999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1172.190000</v>
+        <v>1172.19</v>
       </c>
       <c r="I15" s="1">
-        <v>-216.303000</v>
+        <v>-216.303</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>85186.366791</v>
+        <v>85186.366790999993</v>
       </c>
       <c r="L15" s="1">
-        <v>23.662880</v>
+        <v>23.662880000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.304000</v>
+        <v>-151.304</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>85196.566026</v>
@@ -3867,163 +4283,163 @@
         <v>23.665713</v>
       </c>
       <c r="R15" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.474000</v>
+        <v>-129.47399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>85207.070797</v>
+        <v>85207.070796999993</v>
       </c>
       <c r="V15" s="1">
-        <v>23.668631</v>
+        <v>23.668631000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.010000</v>
+        <v>1217.01</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.527000</v>
+        <v>-108.527</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>85217.850352</v>
+        <v>85217.850351999994</v>
       </c>
       <c r="AA15" s="1">
-        <v>23.671625</v>
+        <v>23.671624999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.800000</v>
+        <v>1224.8</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.351300</v>
+        <v>-91.351299999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>85228.348177</v>
+        <v>85228.348177000007</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.674541</v>
+        <v>23.674541000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.730000</v>
+        <v>1229.73</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.652100</v>
+        <v>-86.652100000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>85239.532961</v>
+        <v>85239.532961000004</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.677648</v>
+        <v>23.677648000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1237.020000</v>
+        <v>1237.02</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.687300</v>
+        <v>-89.687299999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>85250.337316</v>
+        <v>85250.337316000005</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.680649</v>
+        <v>23.680648999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.369000</v>
+        <v>-101.369</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>85261.423892</v>
+        <v>85261.423892000006</v>
       </c>
       <c r="AU15" s="1">
         <v>23.683729</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.448000</v>
+        <v>-120.44799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>85272.469798</v>
+        <v>85272.469798000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.686797</v>
+        <v>23.686796999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1263.300000</v>
+        <v>1263.3</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.820000</v>
+        <v>-137.82</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>85283.670951</v>
+        <v>85283.670950999993</v>
       </c>
       <c r="BE15" s="1">
         <v>23.689909</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.314000</v>
+        <v>-219.31399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>85295.252039</v>
+        <v>85295.252038999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.693126</v>
+        <v>23.693125999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1372.940000</v>
+        <v>1372.94</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.045000</v>
+        <v>-355.04500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>85306.515720</v>
+        <v>85306.515719999996</v>
       </c>
       <c r="BO15" s="1">
         <v>23.696254</v>
       </c>
       <c r="BP15" s="1">
-        <v>1487.660000</v>
+        <v>1487.66</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.355000</v>
+        <v>-575.35500000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>85317.090891</v>
@@ -4032,846 +4448,846 @@
         <v>23.699192</v>
       </c>
       <c r="BU15" s="1">
-        <v>1619.600000</v>
+        <v>1619.6</v>
       </c>
       <c r="BV15" s="1">
-        <v>-822.771000</v>
+        <v>-822.77099999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>85328.362012</v>
+        <v>85328.362011999998</v>
       </c>
       <c r="BY15" s="1">
         <v>23.702323</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.090000</v>
+        <v>1772.09</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1091.790000</v>
+        <v>-1091.79</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>85340.583405</v>
+        <v>85340.583404999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>23.705718</v>
+        <v>23.705718000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2187.910000</v>
+        <v>2187.91</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1739.780000</v>
+        <v>-1739.78</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>85166.114146</v>
+        <v>85166.114146000007</v>
       </c>
       <c r="B16" s="1">
-        <v>23.657254</v>
+        <v>23.657253999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.340000</v>
+        <v>1150.3399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-256.910000</v>
+        <v>-256.91000000000003</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>85176.523221</v>
+        <v>85176.523220999996</v>
       </c>
       <c r="G16" s="1">
         <v>23.660145</v>
       </c>
       <c r="H16" s="1">
-        <v>1172.250000</v>
+        <v>1172.25</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.221000</v>
+        <v>-216.221</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>85186.711513</v>
+        <v>85186.711513000002</v>
       </c>
       <c r="L16" s="1">
-        <v>23.662975</v>
+        <v>23.662974999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.502000</v>
+        <v>-151.50200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>85196.910747</v>
+        <v>85196.910747000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.665809</v>
+        <v>23.665808999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1209.270000</v>
+        <v>1209.27</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.477000</v>
+        <v>-129.477</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>85207.414027</v>
+        <v>85207.414027000006</v>
       </c>
       <c r="V16" s="1">
-        <v>23.668726</v>
+        <v>23.668725999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.678000</v>
+        <v>-108.678</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>85218.550205</v>
+        <v>85218.550205000007</v>
       </c>
       <c r="AA16" s="1">
-        <v>23.671820</v>
+        <v>23.67182</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.940000</v>
+        <v>1224.94</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.392800</v>
+        <v>-91.392799999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>85229.034639</v>
+        <v>85229.034639000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.674732</v>
+        <v>23.674731999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.760000</v>
+        <v>1229.76</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.675300</v>
+        <v>-86.675299999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>85239.882641</v>
+        <v>85239.882641000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>23.677745</v>
+        <v>23.677745000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.706300</v>
+        <v>-89.706299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>85250.700884</v>
+        <v>85250.700884000005</v>
       </c>
       <c r="AP16" s="1">
-        <v>23.680750</v>
+        <v>23.68075</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.354000</v>
+        <v>-101.354</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>85261.788452</v>
+        <v>85261.788451999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.683830</v>
+        <v>23.68383</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.870000</v>
+        <v>1254.8699999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.428000</v>
+        <v>-120.428</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>85273.147143</v>
+        <v>85273.147142999995</v>
       </c>
       <c r="AZ16" s="1">
         <v>23.686985</v>
       </c>
       <c r="BA16" s="1">
-        <v>1263.240000</v>
+        <v>1263.24</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.781000</v>
+        <v>-137.78100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>85284.353446</v>
+        <v>85284.353445999994</v>
       </c>
       <c r="BE16" s="1">
-        <v>23.690098</v>
+        <v>23.690097999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.319000</v>
+        <v>-219.31899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>85295.716297</v>
+        <v>85295.716297000006</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.693255</v>
+        <v>23.693255000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1372.940000</v>
+        <v>1372.94</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.035000</v>
+        <v>-355.03500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>85306.937288</v>
+        <v>85306.937288000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.696371</v>
+        <v>23.696370999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.297000</v>
+        <v>-575.29700000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>85317.503562</v>
+        <v>85317.503561999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>23.699307</v>
+        <v>23.699307000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1619.680000</v>
+        <v>1619.68</v>
       </c>
       <c r="BV16" s="1">
-        <v>-822.724000</v>
+        <v>-822.72400000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>85328.785566</v>
+        <v>85328.785566000006</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.702440</v>
+        <v>23.702439999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.240000</v>
+        <v>1772.24</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1091.910000</v>
+        <v>-1091.9100000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>85341.123547</v>
+        <v>85341.123546999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.705868</v>
+        <v>23.705867999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2186.870000</v>
+        <v>2186.87</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1741.510000</v>
+        <v>-1741.51</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>85166.457379</v>
+        <v>85166.457378999999</v>
       </c>
       <c r="B17" s="1">
         <v>23.657349</v>
       </c>
       <c r="C17" s="1">
-        <v>1150.650000</v>
+        <v>1150.6500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-256.943000</v>
+        <v>-256.94299999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>85176.867412</v>
+        <v>85176.867412000007</v>
       </c>
       <c r="G17" s="1">
-        <v>23.660241</v>
+        <v>23.660240999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.180000</v>
+        <v>1172.18</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.997000</v>
+        <v>-216.99700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>85187.059206</v>
+        <v>85187.059206000005</v>
       </c>
       <c r="L17" s="1">
         <v>23.663072</v>
       </c>
       <c r="M17" s="1">
-        <v>1200.950000</v>
+        <v>1200.95</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.231000</v>
+        <v>-151.23099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>85197.609113</v>
+        <v>85197.609112999999</v>
       </c>
       <c r="Q17" s="1">
         <v>23.666003</v>
       </c>
       <c r="R17" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.424000</v>
+        <v>-129.42400000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>85208.100492</v>
+        <v>85208.100491999998</v>
       </c>
       <c r="V17" s="1">
         <v>23.668917</v>
       </c>
       <c r="W17" s="1">
-        <v>1216.990000</v>
+        <v>1216.99</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.498000</v>
+        <v>-108.498</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>85218.897901</v>
+        <v>85218.897901000004</v>
       </c>
       <c r="AA17" s="1">
         <v>23.671916</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.273100</v>
+        <v>-91.273099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>85229.375893</v>
+        <v>85229.375893000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.674827</v>
+        <v>23.674827000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.780000</v>
+        <v>1229.78</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.714800</v>
+        <v>-86.714799999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>85240.231824</v>
+        <v>85240.231824000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.677842</v>
+        <v>23.677841999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1237.040000</v>
+        <v>1237.04</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.708800</v>
+        <v>-89.708799999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>85251.371009</v>
+        <v>85251.371008999995</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.680936</v>
+        <v>23.680935999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.341000</v>
+        <v>-101.34099999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>85262.468467</v>
+        <v>85262.468466999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>23.684019</v>
+        <v>23.684018999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.910000</v>
+        <v>1254.9100000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.443000</v>
+        <v>-120.443</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>85273.550582</v>
+        <v>85273.550581999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.687097</v>
+        <v>23.687097000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.783000</v>
+        <v>-137.78299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>85284.783973</v>
+        <v>85284.783972999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.690218</v>
+        <v>23.690218000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1303.210000</v>
+        <v>1303.21</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.307000</v>
+        <v>-219.30699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>85296.105670</v>
+        <v>85296.105670000004</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.693363</v>
+        <v>23.693363000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1372.900000</v>
+        <v>1372.9</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.030000</v>
+        <v>-355.03</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>85307.335577</v>
+        <v>85307.335577000005</v>
       </c>
       <c r="BO17" s="1">
         <v>23.696482</v>
       </c>
       <c r="BP17" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.288000</v>
+        <v>-575.28800000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>85317.934586</v>
+        <v>85317.934586000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.699426</v>
+        <v>23.699425999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1619.710000</v>
+        <v>1619.71</v>
       </c>
       <c r="BV17" s="1">
-        <v>-822.782000</v>
+        <v>-822.78200000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>85329.212155</v>
+        <v>85329.212155000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.702559</v>
+        <v>23.702559000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.090000</v>
+        <v>1772.09</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1091.810000</v>
+        <v>-1091.81</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>85341.664683</v>
+        <v>85341.664682999995</v>
       </c>
       <c r="CD17" s="1">
         <v>23.706018</v>
       </c>
       <c r="CE17" s="1">
-        <v>2189.060000</v>
+        <v>2189.06</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1741.510000</v>
+        <v>-1741.51</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>85166.797667</v>
+        <v>85166.797667000006</v>
       </c>
       <c r="B18" s="1">
-        <v>23.657444</v>
+        <v>23.657444000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1150.050000</v>
+        <v>1150.05</v>
       </c>
       <c r="D18" s="1">
-        <v>-256.977000</v>
+        <v>-256.97699999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>85177.558339</v>
+        <v>85177.558338999996</v>
       </c>
       <c r="G18" s="1">
-        <v>23.660433</v>
+        <v>23.660433000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1172.290000</v>
+        <v>1172.29</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.544000</v>
+        <v>-216.54400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>85187.755590</v>
+        <v>85187.755590000001</v>
       </c>
       <c r="L18" s="1">
-        <v>23.663265</v>
+        <v>23.663264999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.307000</v>
+        <v>-151.30699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>85197.957342</v>
+        <v>85197.957341999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>23.666099</v>
+        <v>23.666098999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1209.250000</v>
+        <v>1209.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.477000</v>
+        <v>-129.477</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>85208.444750</v>
+        <v>85208.444749999995</v>
       </c>
       <c r="V18" s="1">
-        <v>23.669012</v>
+        <v>23.669011999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.586000</v>
+        <v>-108.586</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>85219.247581</v>
+        <v>85219.247581000003</v>
       </c>
       <c r="AA18" s="1">
         <v>23.672013</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.351900</v>
+        <v>-91.351900000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>85229.720606</v>
+        <v>85229.720606000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.674922</v>
+        <v>23.674921999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.730000</v>
+        <v>1229.73</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.701900</v>
+        <v>-86.701899999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>85240.891503</v>
+        <v>85240.891503000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.678025</v>
+        <v>23.678025000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.704600</v>
+        <v>-89.704599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>85251.804978</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.681057</v>
+        <v>23.681056999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.331000</v>
+        <v>-101.331</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>85262.913874</v>
+        <v>85262.913874000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.684143</v>
+        <v>23.684142999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.880000</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.464000</v>
+        <v>-120.464</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>85273.928532</v>
+        <v>85273.928532000005</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.687202</v>
+        <v>23.687201999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1263.290000</v>
+        <v>1263.29</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.774000</v>
+        <v>-137.774</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>85285.145063</v>
+        <v>85285.145063000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.690318</v>
+        <v>23.690318000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.329000</v>
+        <v>-219.32900000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>85296.483110</v>
+        <v>85296.483110000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.693468</v>
+        <v>23.693467999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1372.930000</v>
+        <v>1372.93</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.023000</v>
+        <v>-355.02300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>85307.757671</v>
+        <v>85307.757670999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.696599</v>
+        <v>23.696598999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.342000</v>
+        <v>-575.34199999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>85318.370569</v>
+        <v>85318.370569000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.699547</v>
+        <v>23.699546999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1619.800000</v>
+        <v>1619.8</v>
       </c>
       <c r="BV18" s="1">
-        <v>-822.681000</v>
+        <v>-822.68100000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>85329.647610</v>
+        <v>85329.64761</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.702680</v>
+        <v>23.702680000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.060000</v>
+        <v>1772.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1091.920000</v>
+        <v>-1091.92</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>85342.205322</v>
+        <v>85342.205321999994</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.706168</v>
+        <v>23.706168000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2186.810000</v>
+        <v>2186.81</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1739.570000</v>
+        <v>-1739.57</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>85167.478177</v>
+        <v>85167.478176999997</v>
       </c>
       <c r="B19" s="1">
-        <v>23.657633</v>
+        <v>23.657633000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.290000</v>
+        <v>1150.29</v>
       </c>
       <c r="D19" s="1">
-        <v>-256.899000</v>
+        <v>-256.899</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>85177.901571</v>
+        <v>85177.901570999995</v>
       </c>
       <c r="G19" s="1">
-        <v>23.660528</v>
+        <v>23.660527999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1172.600000</v>
+        <v>1172.5999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.258000</v>
+        <v>-217.25800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>85188.105765</v>
@@ -4880,405 +5296,405 @@
         <v>23.663363</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.850000</v>
+        <v>1200.8499999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.451000</v>
+        <v>-151.45099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>85198.305496</v>
+        <v>85198.305496000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.666196</v>
+        <v>23.666195999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1209.210000</v>
+        <v>1209.21</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.498000</v>
+        <v>-129.49799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>85208.787946</v>
+        <v>85208.787945999997</v>
       </c>
       <c r="V19" s="1">
-        <v>23.669108</v>
+        <v>23.669108000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.890000</v>
+        <v>1216.8900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.610000</v>
+        <v>-108.61</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>85219.913740</v>
+        <v>85219.913740000004</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.672198</v>
+        <v>23.672198000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.900000</v>
+        <v>1224.9000000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.328900</v>
+        <v>-91.328900000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>85230.382269</v>
+        <v>85230.382268999994</v>
       </c>
       <c r="AF19" s="1">
         <v>23.675106</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.750000</v>
+        <v>1229.75</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.665800</v>
+        <v>-86.665800000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>85241.273959</v>
+        <v>85241.273958999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.678132</v>
+        <v>23.678132000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1237.010000</v>
+        <v>1237.01</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.734000</v>
+        <v>-89.733999999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>85252.168050</v>
+        <v>85252.168049999993</v>
       </c>
       <c r="AP19" s="1">
         <v>23.681158</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.990000</v>
+        <v>1244.99</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.354000</v>
+        <v>-101.354</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>85263.281908</v>
+        <v>85263.281908000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.684245</v>
+        <v>23.684245000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.462000</v>
+        <v>-120.462</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>85274.304997</v>
+        <v>85274.304996999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>23.687307</v>
+        <v>23.687307000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1263.300000</v>
+        <v>1263.3</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.785000</v>
+        <v>-137.785</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>85285.495238</v>
+        <v>85285.495238000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.690415</v>
+        <v>23.690415000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.318000</v>
+        <v>-219.31800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>85296.911716</v>
+        <v>85296.911716000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.693587</v>
+        <v>23.693587000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1372.920000</v>
+        <v>1372.92</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.022000</v>
+        <v>-355.02199999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>85308.152023</v>
+        <v>85308.152023000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.696709</v>
+        <v>23.696708999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.300000</v>
+        <v>-575.29999999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>85318.765422</v>
+        <v>85318.765421999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.699657</v>
+        <v>23.699656999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1619.820000</v>
+        <v>1619.82</v>
       </c>
       <c r="BV19" s="1">
-        <v>-822.655000</v>
+        <v>-822.65499999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>85330.070698</v>
+        <v>85330.070697999996</v>
       </c>
       <c r="BY19" s="1">
         <v>23.702797</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1091.830000</v>
+        <v>-1091.83</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>85342.742489</v>
+        <v>85342.742488999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>23.706317</v>
+        <v>23.706316999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2187.750000</v>
+        <v>2187.75</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1742.600000</v>
+        <v>-1742.6</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>85167.825840</v>
+        <v>85167.825840000005</v>
       </c>
       <c r="B20" s="1">
         <v>23.657729</v>
       </c>
       <c r="C20" s="1">
-        <v>1150.430000</v>
+        <v>1150.43</v>
       </c>
       <c r="D20" s="1">
-        <v>-256.692000</v>
+        <v>-256.69200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>85178.247282</v>
+        <v>85178.247281999997</v>
       </c>
       <c r="G20" s="1">
-        <v>23.660624</v>
+        <v>23.660623999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.060000</v>
+        <v>1172.06</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.598000</v>
+        <v>-216.59800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>85188.449502</v>
+        <v>85188.449502000003</v>
       </c>
       <c r="L20" s="1">
-        <v>23.663458</v>
+        <v>23.663457999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1201.100000</v>
+        <v>1201.0999999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.396000</v>
+        <v>-151.39599999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>85198.967688</v>
+        <v>85198.967688000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.666380</v>
+        <v>23.66638</v>
       </c>
       <c r="R20" s="1">
-        <v>1209.190000</v>
+        <v>1209.19</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.474000</v>
+        <v>-129.47399999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>85209.457546</v>
+        <v>85209.457546000005</v>
       </c>
       <c r="V20" s="1">
-        <v>23.669294</v>
+        <v>23.669294000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.870000</v>
+        <v>1216.8699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.738000</v>
+        <v>-108.738</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>85220.292651</v>
+        <v>85220.292650999996</v>
       </c>
       <c r="AA20" s="1">
         <v>23.672304</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.920000</v>
+        <v>1224.92</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.323400</v>
+        <v>-91.323400000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>85230.780557</v>
+        <v>85230.780557000006</v>
       </c>
       <c r="AF20" s="1">
         <v>23.675217</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.750000</v>
+        <v>1229.75</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.661200</v>
+        <v>-86.661199999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>85241.624623</v>
+        <v>85241.624622999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.678229</v>
+        <v>23.678229000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1237.020000</v>
+        <v>1237.02</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.694700</v>
+        <v>-89.694699999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>85252.528659</v>
+        <v>85252.528659000003</v>
       </c>
       <c r="AP20" s="1">
         <v>23.681258</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.346000</v>
+        <v>-101.346</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>85263.645473</v>
+        <v>85263.645472999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>23.684346</v>
+        <v>23.684346000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.880000</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.451000</v>
+        <v>-120.45099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>85274.725139</v>
+        <v>85274.725139000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>23.687424</v>
       </c>
       <c r="BA20" s="1">
-        <v>1263.270000</v>
+        <v>1263.27</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.764000</v>
+        <v>-137.76400000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>85285.930725</v>
+        <v>85285.930724999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.690536</v>
+        <v>23.690536000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1303.250000</v>
+        <v>1303.25</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.298000</v>
+        <v>-219.298</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>85297.233557</v>
@@ -5287,1041 +5703,1041 @@
         <v>23.693676</v>
       </c>
       <c r="BK20" s="1">
-        <v>1372.960000</v>
+        <v>1372.96</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.041000</v>
+        <v>-355.041</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>85308.577201</v>
+        <v>85308.577200999993</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.696827</v>
+        <v>23.696826999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1487.650000</v>
+        <v>1487.65</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.301000</v>
+        <v>-575.30100000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>85319.181530</v>
+        <v>85319.181530000002</v>
       </c>
       <c r="BT20" s="1">
         <v>23.699773</v>
       </c>
       <c r="BU20" s="1">
-        <v>1619.910000</v>
+        <v>1619.91</v>
       </c>
       <c r="BV20" s="1">
-        <v>-822.690000</v>
+        <v>-822.69</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>85330.493817</v>
+        <v>85330.493816999995</v>
       </c>
       <c r="BY20" s="1">
-        <v>23.702915</v>
+        <v>23.702915000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1091.810000</v>
+        <v>-1091.81</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>85343.322344</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.706478</v>
+        <v>23.706478000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2186.450000</v>
+        <v>2186.4499999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1740.140000</v>
+        <v>-1740.14</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>85168.168575</v>
+        <v>85168.168575000003</v>
       </c>
       <c r="B21" s="1">
-        <v>23.657825</v>
+        <v>23.657824999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.400000</v>
+        <v>1150.4000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-257.148000</v>
+        <v>-257.14800000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>85178.919398</v>
+        <v>85178.919397999998</v>
       </c>
       <c r="G21" s="1">
-        <v>23.660811</v>
+        <v>23.660810999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.610000</v>
+        <v>1171.6099999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.258000</v>
+        <v>-216.25800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>85189.103220</v>
+        <v>85189.103220000005</v>
       </c>
       <c r="L21" s="1">
-        <v>23.663640</v>
+        <v>23.663640000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.672000</v>
+        <v>-151.672</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>85199.352054</v>
+        <v>85199.352054000003</v>
       </c>
       <c r="Q21" s="1">
         <v>23.666487</v>
       </c>
       <c r="R21" s="1">
-        <v>1209.170000</v>
+        <v>1209.17</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.423000</v>
+        <v>-129.423</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>85209.819624</v>
+        <v>85209.819623999996</v>
       </c>
       <c r="V21" s="1">
         <v>23.669394</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.910000</v>
+        <v>1216.9100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.600000</v>
+        <v>-108.6</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>85220.641835</v>
+        <v>85220.641835000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>23.672401</v>
+        <v>23.672401000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.960000</v>
+        <v>1224.96</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.317100</v>
+        <v>-91.317099999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>85231.111886</v>
+        <v>85231.111885999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.675309</v>
+        <v>23.675308999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.790000</v>
+        <v>1229.79</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.704900</v>
+        <v>-86.704899999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>85241.972286</v>
+        <v>85241.972286000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.678326</v>
+        <v>23.678325999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1237.030000</v>
+        <v>1237.03</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.695200</v>
+        <v>-89.6952</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>85252.955201</v>
+        <v>85252.955201000004</v>
       </c>
       <c r="AP21" s="1">
         <v>23.681376</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.342000</v>
+        <v>-101.342</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>85264.071073</v>
+        <v>85264.071072999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.684464</v>
+        <v>23.684463999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.444000</v>
+        <v>-120.444</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>85275.023731</v>
+        <v>85275.023730999994</v>
       </c>
       <c r="AZ21" s="1">
         <v>23.687507</v>
       </c>
       <c r="BA21" s="1">
-        <v>1263.270000</v>
+        <v>1263.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.766000</v>
+        <v>-137.76599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>85286.225880</v>
+        <v>85286.225879999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.690618</v>
+        <v>23.690618000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.328000</v>
+        <v>-219.328</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>85297.616500</v>
+        <v>85297.616500000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.693782</v>
+        <v>23.693781999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1372.950000</v>
+        <v>1372.95</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.022000</v>
+        <v>-355.02199999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>85308.971878</v>
+        <v>85308.971877999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.696937</v>
+        <v>23.696936999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1487.630000</v>
+        <v>1487.63</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.285000</v>
+        <v>-575.28499999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>85319.597673</v>
+        <v>85319.597672999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.699888</v>
+        <v>23.699888000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.050000</v>
+        <v>1620.05</v>
       </c>
       <c r="BV21" s="1">
-        <v>-822.678000</v>
+        <v>-822.678</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>85330.943198</v>
+        <v>85330.943197999994</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.703040</v>
+        <v>23.703040000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1091.900000</v>
+        <v>-1091.9000000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>85343.822279</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.706617</v>
+        <v>23.706617000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2186.890000</v>
+        <v>2186.89</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1740.920000</v>
+        <v>-1740.92</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>85168.820815</v>
+        <v>85168.820814999999</v>
       </c>
       <c r="B22" s="1">
         <v>23.658006</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.300000</v>
+        <v>1150.3</v>
       </c>
       <c r="D22" s="1">
-        <v>-256.844000</v>
+        <v>-256.84399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>85179.285409</v>
+        <v>85179.285409000004</v>
       </c>
       <c r="G22" s="1">
-        <v>23.660913</v>
+        <v>23.660913000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.430000</v>
+        <v>1172.43</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.369000</v>
+        <v>-216.369</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>85189.486131</v>
+        <v>85189.486130999998</v>
       </c>
       <c r="L22" s="1">
         <v>23.663746</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.860000</v>
+        <v>1200.8599999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.267000</v>
+        <v>-151.267</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>85199.702736</v>
+        <v>85199.702736000007</v>
       </c>
       <c r="Q22" s="1">
         <v>23.666584</v>
       </c>
       <c r="R22" s="1">
-        <v>1209.240000</v>
+        <v>1209.24</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.468000</v>
+        <v>-129.46799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>85210.161865</v>
+        <v>85210.161865000002</v>
       </c>
       <c r="V22" s="1">
-        <v>23.669489</v>
+        <v>23.669488999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.990000</v>
+        <v>1216.99</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.652000</v>
+        <v>-108.652</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>85220.992011</v>
+        <v>85220.992010999995</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.672498</v>
+        <v>23.672498000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.910000</v>
+        <v>1224.9100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.278500</v>
+        <v>-91.278499999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>85231.443212</v>
+        <v>85231.443211999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.675401</v>
+        <v>23.675401000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.730000</v>
+        <v>1229.73</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.694600</v>
+        <v>-86.694599999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>85242.398351</v>
+        <v>85242.398350999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>23.678444</v>
+        <v>23.678443999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1237.020000</v>
+        <v>1237.02</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.711000</v>
+        <v>-89.710999999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>85253.248945</v>
+        <v>85253.248944999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>23.681458</v>
+        <v>23.681457999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.345000</v>
+        <v>-101.345</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>85264.374096</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.684548</v>
+        <v>23.684547999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.447000</v>
+        <v>-120.447</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>85275.382306</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.687606</v>
+        <v>23.687605999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1263.300000</v>
+        <v>1263.3</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.781000</v>
+        <v>-137.78100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>85286.603299</v>
+        <v>85286.603298999995</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.690723</v>
+        <v>23.690722999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.333000</v>
+        <v>-219.333</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>85298.004836</v>
+        <v>85298.004835999993</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.693890</v>
+        <v>23.69389</v>
       </c>
       <c r="BK22" s="1">
-        <v>1372.950000</v>
+        <v>1372.95</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.027000</v>
+        <v>-355.02699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>85309.393973</v>
+        <v>85309.393972999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.697054</v>
+        <v>23.697054000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1487.580000</v>
+        <v>1487.58</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.303000</v>
+        <v>-575.303</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>85320.407143</v>
+        <v>85320.407143000004</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.700113</v>
+        <v>23.700113000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.130000</v>
+        <v>1620.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-822.725000</v>
+        <v>-822.72500000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>85331.374184</v>
       </c>
       <c r="BY22" s="1">
-        <v>23.703159</v>
+        <v>23.703158999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.140000</v>
+        <v>1772.14</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1091.840000</v>
+        <v>-1091.8399999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>85344.341095</v>
+        <v>85344.341094999996</v>
       </c>
       <c r="CD22" s="1">
         <v>23.706761</v>
       </c>
       <c r="CE22" s="1">
-        <v>2187.710000</v>
+        <v>2187.71</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1742.410000</v>
+        <v>-1742.41</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>85169.190335</v>
+        <v>85169.190335000007</v>
       </c>
       <c r="B23" s="1">
-        <v>23.658108</v>
+        <v>23.658107999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-256.625000</v>
+        <v>-256.625</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>85179.631617</v>
+        <v>85179.631617000006</v>
       </c>
       <c r="G23" s="1">
         <v>23.661009</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.830000</v>
+        <v>1171.83</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.913000</v>
+        <v>-216.91300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>85189.831842</v>
       </c>
       <c r="L23" s="1">
-        <v>23.663842</v>
+        <v>23.663841999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1201.050000</v>
+        <v>1201.05</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.579000</v>
+        <v>-151.57900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>85200.051909</v>
+        <v>85200.051909000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>23.666681</v>
+        <v>23.666681000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1209.230000</v>
+        <v>1209.23</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.533000</v>
+        <v>-129.53299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>85210.508567</v>
+        <v>85210.508566999997</v>
       </c>
       <c r="V23" s="1">
-        <v>23.669586</v>
+        <v>23.669585999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.870000</v>
+        <v>1216.8699999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.564000</v>
+        <v>-108.56399999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>85221.420057</v>
+        <v>85221.420056999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.672617</v>
+        <v>23.672616999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.820000</v>
+        <v>1224.82</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.278100</v>
+        <v>-91.278099999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>85232.131660</v>
+        <v>85232.131659999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.675592</v>
+        <v>23.675592000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.780000</v>
+        <v>1229.78</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.639900</v>
+        <v>-86.639899999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>85242.674125</v>
+        <v>85242.674125000005</v>
       </c>
       <c r="AK23" s="1">
         <v>23.678521</v>
       </c>
       <c r="AL23" s="1">
-        <v>1237.010000</v>
+        <v>1237.01</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.700300</v>
+        <v>-89.700299999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>85253.607439</v>
+        <v>85253.607438999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>23.681558</v>
+        <v>23.681557999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.343000</v>
+        <v>-101.343</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>85264.739152</v>
+        <v>85264.739151999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.684650</v>
+        <v>23.684650000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.890000</v>
+        <v>1254.8900000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.453000</v>
+        <v>-120.453</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>85275.740914</v>
+        <v>85275.740913999995</v>
       </c>
       <c r="AZ23" s="1">
-        <v>23.687706</v>
+        <v>23.687705999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.765000</v>
+        <v>-137.76499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>85287.273891</v>
+        <v>85287.273891000004</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.690909</v>
+        <v>23.690909000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1303.220000</v>
+        <v>1303.22</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.313000</v>
+        <v>-219.31299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>85298.756804</v>
+        <v>85298.756804000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.694099</v>
+        <v>23.694099000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1372.970000</v>
+        <v>1372.97</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.017000</v>
+        <v>-355.017</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>85309.787797</v>
+        <v>85309.787796999997</v>
       </c>
       <c r="BO23" s="1">
         <v>23.697163</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.276000</v>
+        <v>-575.27599999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>85320.855525</v>
+        <v>85320.855525000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.700238</v>
+        <v>23.700237999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.100000</v>
+        <v>1620.1</v>
       </c>
       <c r="BV23" s="1">
-        <v>-822.761000</v>
+        <v>-822.76099999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>85331.794791</v>
+        <v>85331.794790999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.703276</v>
+        <v>23.703275999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.090000</v>
+        <v>1772.09</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1091.880000</v>
+        <v>-1091.8800000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>85345.169944</v>
+        <v>85345.169943999994</v>
       </c>
       <c r="CD23" s="1">
         <v>23.706992</v>
       </c>
       <c r="CE23" s="1">
-        <v>2189.330000</v>
+        <v>2189.33</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1741.260000</v>
+        <v>-1741.26</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>85169.534593</v>
+        <v>85169.534593000004</v>
       </c>
       <c r="B24" s="1">
-        <v>23.658204</v>
+        <v>23.658204000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.450000</v>
+        <v>1150.45</v>
       </c>
       <c r="D24" s="1">
-        <v>-256.678000</v>
+        <v>-256.678</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>85179.976832</v>
       </c>
       <c r="G24" s="1">
-        <v>23.661105</v>
+        <v>23.661104999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1172.440000</v>
+        <v>1172.44</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.608000</v>
+        <v>-216.608</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>85190.181026</v>
+        <v>85190.181026000006</v>
       </c>
       <c r="L24" s="1">
-        <v>23.663939</v>
+        <v>23.663938999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1200.910000</v>
+        <v>1200.9100000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.236000</v>
+        <v>-151.23599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>85200.476981</v>
       </c>
       <c r="Q24" s="1">
-        <v>23.666799</v>
+        <v>23.666799000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1209.230000</v>
+        <v>1209.23</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.526000</v>
+        <v>-129.52600000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>85210.933180</v>
+        <v>85210.933180000007</v>
       </c>
       <c r="V24" s="1">
-        <v>23.669704</v>
+        <v>23.669703999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.539000</v>
+        <v>-108.539</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>85221.700297</v>
+        <v>85221.700297000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>23.672695</v>
+        <v>23.672695000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.970000</v>
+        <v>1224.97</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.297800</v>
+        <v>-91.297799999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>85232.475419</v>
+        <v>85232.475418999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.675688</v>
+        <v>23.675688000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.730000</v>
+        <v>1229.73</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.692200</v>
+        <v>-86.6922</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>85243.022812</v>
+        <v>85243.022811999996</v>
       </c>
       <c r="AK24" s="1">
-        <v>23.678617</v>
+        <v>23.678616999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.990000</v>
+        <v>1236.99</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.720300</v>
+        <v>-89.720299999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>85253.969022</v>
+        <v>85253.969022000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.681658</v>
+        <v>23.681657999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.346000</v>
+        <v>-101.346</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>85265.103216</v>
+        <v>85265.103216000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.684751</v>
+        <v>23.684750999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.900000</v>
+        <v>1254.9000000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.437000</v>
+        <v>-120.437</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>85276.457665</v>
+        <v>85276.457664999994</v>
       </c>
       <c r="AZ24" s="1">
-        <v>23.687905</v>
+        <v>23.687905000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1263.320000</v>
+        <v>1263.32</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.790000</v>
+        <v>-137.79</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>85287.671225</v>
+        <v>85287.671224999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.691020</v>
+        <v>23.691020000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.300000</v>
+        <v>-219.3</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>85299.157042</v>
+        <v>85299.157042000006</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.694210</v>
+        <v>23.694210000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1372.940000</v>
+        <v>1372.94</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.003000</v>
+        <v>-355.00299999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>85310.210884</v>
@@ -6330,574 +6746,575 @@
         <v>23.697281</v>
       </c>
       <c r="BP24" s="1">
-        <v>1487.600000</v>
+        <v>1487.6</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.308000</v>
+        <v>-575.30799999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>85321.283077</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.700356</v>
+        <v>23.700355999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.300000</v>
+        <v>1620.3</v>
       </c>
       <c r="BV24" s="1">
-        <v>-822.838000</v>
+        <v>-822.83799999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>85332.525398</v>
+        <v>85332.525397999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.703479</v>
+        <v>23.703479000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1772.130000</v>
+        <v>1772.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1091.970000</v>
+        <v>-1091.97</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>85345.377747</v>
+        <v>85345.377747000006</v>
       </c>
       <c r="CD24" s="1">
-        <v>23.707049</v>
+        <v>23.707049000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2188.010000</v>
+        <v>2188.0100000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1739.650000</v>
+        <v>-1739.65</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>85169.877298</v>
+        <v>85169.877298000007</v>
       </c>
       <c r="B25" s="1">
         <v>23.658299</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.340000</v>
+        <v>1150.3399999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-256.703000</v>
+        <v>-256.70299999999997</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>85180.405271</v>
+        <v>85180.405270999996</v>
       </c>
       <c r="G25" s="1">
-        <v>23.661224</v>
+        <v>23.661224000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.100000</v>
+        <v>1172.0999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.676000</v>
+        <v>-216.67599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>85190.612087</v>
+        <v>85190.612087000001</v>
       </c>
       <c r="L25" s="1">
-        <v>23.664059</v>
+        <v>23.664059000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.464000</v>
+        <v>-151.464</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>85200.758214</v>
+        <v>85200.758214000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>23.666877</v>
+        <v>23.666876999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1209.230000</v>
+        <v>1209.23</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.542000</v>
+        <v>-129.542</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>85211.212390</v>
+        <v>85211.212390000001</v>
       </c>
       <c r="V25" s="1">
         <v>23.669781</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.960000</v>
+        <v>1216.96</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.516000</v>
+        <v>-108.51600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>85222.049016</v>
+        <v>85222.049016000004</v>
       </c>
       <c r="AA25" s="1">
         <v>23.672791</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.910000</v>
+        <v>1224.9100000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.302100</v>
+        <v>-91.302099999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>85232.820144</v>
+        <v>85232.820143999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.675783</v>
+        <v>23.675782999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.750000</v>
+        <v>1229.75</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.755900</v>
+        <v>-86.755899999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>85243.372492</v>
+        <v>85243.372491999995</v>
       </c>
       <c r="AK25" s="1">
         <v>23.678715</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.990000</v>
+        <v>1236.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.709500</v>
+        <v>-89.709500000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>85254.696190</v>
+        <v>85254.696190000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.681860</v>
+        <v>23.68186</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1245.000000</v>
+        <v>1245</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.348000</v>
+        <v>-101.348</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>85265.832831</v>
+        <v>85265.832831000007</v>
       </c>
       <c r="AU25" s="1">
-        <v>23.684954</v>
+        <v>23.684954000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.870000</v>
+        <v>1254.8699999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.454000</v>
+        <v>-120.45399999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>85276.819217</v>
+        <v>85276.819216999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>23.688005</v>
       </c>
       <c r="BA25" s="1">
-        <v>1263.260000</v>
+        <v>1263.26</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.773000</v>
+        <v>-137.773</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>85288.060050</v>
+        <v>85288.06005</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.691128</v>
+        <v>23.691127999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.340000</v>
+        <v>-219.34</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>85299.533010</v>
+        <v>85299.533009999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>23.694315</v>
       </c>
       <c r="BK25" s="1">
-        <v>1372.960000</v>
+        <v>1372.96</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.020000</v>
+        <v>-355.02</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>85310.924165</v>
+        <v>85310.924165000004</v>
       </c>
       <c r="BO25" s="1">
-        <v>23.697479</v>
+        <v>23.697479000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1487.590000</v>
+        <v>1487.59</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.256000</v>
+        <v>-575.25599999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>85322.023604</v>
+        <v>85322.023604000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.700562</v>
+        <v>23.700562000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.320000</v>
+        <v>1620.32</v>
       </c>
       <c r="BV25" s="1">
-        <v>-822.909000</v>
+        <v>-822.90899999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>85332.680648</v>
+        <v>85332.680647999994</v>
       </c>
       <c r="BY25" s="1">
         <v>23.703522</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1091.920000</v>
+        <v>-1091.92</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>85345.895061</v>
+        <v>85345.895061000003</v>
       </c>
       <c r="CD25" s="1">
         <v>23.707193</v>
       </c>
       <c r="CE25" s="1">
-        <v>2186.990000</v>
+        <v>2186.9899999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1739.230000</v>
+        <v>-1739.23</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>85170.299390</v>
+        <v>85170.29939</v>
       </c>
       <c r="B26" s="1">
-        <v>23.658416</v>
+        <v>23.658415999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.270000</v>
+        <v>1150.27</v>
       </c>
       <c r="D26" s="1">
-        <v>-256.957000</v>
+        <v>-256.95699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>85180.675728</v>
+        <v>85180.675728000002</v>
       </c>
       <c r="G26" s="1">
         <v>23.661299</v>
       </c>
       <c r="H26" s="1">
-        <v>1171.530000</v>
+        <v>1171.53</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.739000</v>
+        <v>-216.739</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>85190.882867</v>
+        <v>85190.882866999993</v>
       </c>
       <c r="L26" s="1">
-        <v>23.664134</v>
+        <v>23.664134000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1201.030000</v>
+        <v>1201.03</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.431000</v>
+        <v>-151.43100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>85201.107929</v>
+        <v>85201.107929000005</v>
       </c>
       <c r="Q26" s="1">
         <v>23.666974</v>
       </c>
       <c r="R26" s="1">
-        <v>1209.200000</v>
+        <v>1209.2</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.499000</v>
+        <v>-129.499</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>85211.559126</v>
+        <v>85211.559125999993</v>
       </c>
       <c r="V26" s="1">
-        <v>23.669878</v>
+        <v>23.669878000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.940000</v>
+        <v>1216.94</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.317000</v>
+        <v>-108.31699999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>85222.395688</v>
+        <v>85222.395688000004</v>
       </c>
       <c r="AA26" s="1">
         <v>23.672888</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.930000</v>
+        <v>1224.93</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.336400</v>
+        <v>-91.336399999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>85233.506570</v>
+        <v>85233.506569999998</v>
       </c>
       <c r="AF26" s="1">
         <v>23.675974</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.710000</v>
+        <v>1229.71</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.776300</v>
+        <v>-86.776300000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>85244.070395</v>
+        <v>85244.070395000002</v>
       </c>
       <c r="AK26" s="1">
         <v>23.678908</v>
       </c>
       <c r="AL26" s="1">
-        <v>1237.000000</v>
+        <v>1237</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.699800</v>
+        <v>-89.699799999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>85255.072125</v>
+        <v>85255.072125000006</v>
       </c>
       <c r="AP26" s="1">
-        <v>23.681964</v>
+        <v>23.681964000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1244.970000</v>
+        <v>1244.97</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.356000</v>
+        <v>-101.35599999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>85266.223184</v>
+        <v>85266.223184000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>23.685062</v>
+        <v>23.685061999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.880000</v>
+        <v>1254.8800000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.461000</v>
+        <v>-120.461</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>85277.178320</v>
+        <v>85277.178320000006</v>
       </c>
       <c r="AZ26" s="1">
         <v>23.688105</v>
       </c>
       <c r="BA26" s="1">
-        <v>1263.280000</v>
+        <v>1263.28</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.796000</v>
+        <v>-137.79599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>85288.736096</v>
+        <v>85288.736095999993</v>
       </c>
       <c r="BE26" s="1">
         <v>23.691316</v>
       </c>
       <c r="BF26" s="1">
-        <v>1303.240000</v>
+        <v>1303.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.311000</v>
+        <v>-219.31100000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>85300.222946</v>
+        <v>85300.222945999994</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.694506</v>
+        <v>23.694506000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1372.910000</v>
+        <v>1372.91</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.029000</v>
+        <v>-355.029</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>85311.034739</v>
+        <v>85311.034738999995</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.697510</v>
+        <v>23.697510000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1487.640000</v>
+        <v>1487.64</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.344000</v>
+        <v>-575.34400000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>85322.148596</v>
+        <v>85322.148595999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>23.700597</v>
+        <v>23.700596999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.350000</v>
+        <v>1620.35</v>
       </c>
       <c r="BV26" s="1">
-        <v>-822.916000</v>
+        <v>-822.91600000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>85333.109228</v>
+        <v>85333.109228000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.703641</v>
+        <v>23.703641000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1091.800000</v>
+        <v>-1091.8</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>85346.444629</v>
+        <v>85346.444629000005</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.707346</v>
+        <v>23.707346000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2188.490000</v>
+        <v>2188.4899999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1739.750000</v>
+        <v>-1739.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>